--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +450,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/Langue-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G00-Langue?vs</t>
   </si>
   <si>
     <t>LangueParlee.dateFin</t>
@@ -607,7 +607,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.21875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Langue parlée par une personne ou dans un service.</t>
+    <t>Langue parlée par une personne ou dans un service.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Langue parlée.</t>
+    <t>Langue parlée.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -270,7 +270,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle la personne renonce à être référent de cette langue.</t>
+    <t>Date à laquelle la personne renonce à être référent de cette langue.</t>
   </si>
 </sst>
 </file>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G00-Langue?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G00-Langue/FHIR/TRE-G00-Langue?vs</t>
   </si>
   <si>
     <t>LangueParlee.dateFin</t>
@@ -607,7 +607,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.11328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Langue parlée par une personne ou dans un service.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Langue parlée par une personne ou dans un service.</t>
   </si>
   <si>
     <t>Base</t>
@@ -504,39 +504,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -544,26 +546,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -621,112 +623,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -738,95 +740,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -838,23 +840,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -868,26 +870,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -897,34 +899,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -936,23 +938,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>83</v>
@@ -966,65 +968,65 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-LangueParlee.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/LangueParlee</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/LangueParlee</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
